--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5554</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.94</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004098</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源港股通股息率50强股票</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.05</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>78.08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>5.40</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>004098</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>前海开源港股通股息率50强股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>86.12</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006616</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合C</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4538</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005662</t>
+          <t>006616</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉实金融精选股票A</t>
+          <t>工银瑞信战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -772,15 +872,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>90.84</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -1017,12 +1017,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.37</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1197,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.15</v>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1330,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1.37</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1346,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.73</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,247 +455,475 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005662</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5554</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005663</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>嘉实金融精选股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0778</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0551</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004098</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源港股通股息率50强股票</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.05</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+      <c r="D6" t="n">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -903,476 +1131,248 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>基金金额</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>005662</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>嘉实金融精选股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>9.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>88.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0116</t>
+          <t>0.5554</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004098</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源港股通股息率50强股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0967</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>46.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>012071</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>45.45</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1027</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>012072</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加喜利回报一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>45.45</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0540</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/港股/01336-新华保险.xlsx
+++ b/数据整理/stocks/港股/01336-新华保险.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.37</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>004317</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>前海开源沪港深裕鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1027</t>
+          <t>0.0890</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>004316</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>前海开源沪港深裕鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45.45</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0540</t>
+          <t>0.0711</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -764,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.57</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0967</t>
+          <t>0.1027</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -802,26 +819,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>46.57</t>
+          <t>45.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0510</t>
+          <t>0.0540</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -830,6 +847,138 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -923,7 +1072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1131,7 +1280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
